--- a/CETC/ExcelFile/testingDeviceName.xlsx
+++ b/CETC/ExcelFile/testingDeviceName.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>烟库乱烟检测</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -64,12 +64,52 @@
     <t>条盒拉线检测</t>
   </si>
   <si>
-    <t>检测设备名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>检测设备ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>DeviceNO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeviceName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>011</t>
+  </si>
+  <si>
+    <t>001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002</t>
+  </si>
+  <si>
+    <t>003</t>
+  </si>
+  <si>
+    <t>004</t>
+  </si>
+  <si>
+    <t>005</t>
+  </si>
+  <si>
+    <t>006</t>
+  </si>
+  <si>
+    <t>007</t>
+  </si>
+  <si>
+    <t>008</t>
+  </si>
+  <si>
+    <t>009</t>
+  </si>
+  <si>
+    <t>010</t>
+  </si>
+  <si>
+    <t>012</t>
+  </si>
+  <si>
+    <t>013</t>
   </si>
 </sst>
 </file>
@@ -112,8 +152,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -418,121 +459,122 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="A2" sqref="A2:A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="1" max="1" width="15.625" customWidth="1"/>
     <col min="2" max="3" width="19.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>

--- a/CETC/ExcelFile/testingDeviceName.xlsx
+++ b/CETC/ExcelFile/testingDeviceName.xlsx
@@ -68,48 +68,48 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>011</t>
+  </si>
+  <si>
+    <t>001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002</t>
+  </si>
+  <si>
+    <t>003</t>
+  </si>
+  <si>
+    <t>004</t>
+  </si>
+  <si>
+    <t>005</t>
+  </si>
+  <si>
+    <t>006</t>
+  </si>
+  <si>
+    <t>007</t>
+  </si>
+  <si>
+    <t>008</t>
+  </si>
+  <si>
+    <t>009</t>
+  </si>
+  <si>
+    <t>010</t>
+  </si>
+  <si>
+    <t>012</t>
+  </si>
+  <si>
+    <t>013</t>
+  </si>
+  <si>
     <t>DeviceName</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>011</t>
-  </si>
-  <si>
-    <t>001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>002</t>
-  </si>
-  <si>
-    <t>003</t>
-  </si>
-  <si>
-    <t>004</t>
-  </si>
-  <si>
-    <t>005</t>
-  </si>
-  <si>
-    <t>006</t>
-  </si>
-  <si>
-    <t>007</t>
-  </si>
-  <si>
-    <t>008</t>
-  </si>
-  <si>
-    <t>009</t>
-  </si>
-  <si>
-    <t>010</t>
-  </si>
-  <si>
-    <t>012</t>
-  </si>
-  <si>
-    <t>013</t>
   </si>
 </sst>
 </file>
@@ -459,7 +459,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A14"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -473,12 +473,12 @@
         <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -486,7 +486,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -494,7 +494,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -502,7 +502,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -510,7 +510,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -518,7 +518,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
@@ -526,7 +526,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
@@ -534,7 +534,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
@@ -542,7 +542,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
@@ -550,7 +550,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
@@ -558,7 +558,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
@@ -566,7 +566,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
@@ -574,7 +574,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>

--- a/CETC/ExcelFile/testingDeviceName.xlsx
+++ b/CETC/ExcelFile/testingDeviceName.xlsx
@@ -14,101 +14,141 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+  <si>
+    <t>烟支空头检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模盒缺支检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一号轮缺支检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三号轮铝箔纸检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四号轮铝箔纸检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五号轮内框纸检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小包外观检测</t>
+  </si>
+  <si>
+    <t>烟包外观复检</t>
+  </si>
+  <si>
+    <t>小包拉线检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>散包视觉检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>散包光电检测</t>
+  </si>
+  <si>
+    <t>条盒拉线检测</t>
+  </si>
+  <si>
+    <t>DeviceNO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>011</t>
+  </si>
+  <si>
+    <t>001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002</t>
+  </si>
+  <si>
+    <t>003</t>
+  </si>
+  <si>
+    <t>004</t>
+  </si>
+  <si>
+    <t>005</t>
+  </si>
+  <si>
+    <t>006</t>
+  </si>
+  <si>
+    <t>007</t>
+  </si>
+  <si>
+    <t>008</t>
+  </si>
+  <si>
+    <t>009</t>
+  </si>
+  <si>
+    <t>010</t>
+  </si>
+  <si>
+    <t>012</t>
+  </si>
+  <si>
+    <t>013</t>
+  </si>
+  <si>
+    <t>DeviceName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>103</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>104</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>105</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>烟库乱烟检测</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>烟支空头检测</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模盒缺支检测</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一号轮缺支检测</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三号轮铝箔纸检测</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>四号轮铝箔纸检测</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>五号轮内框纸检测</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小包外观检测</t>
-  </si>
-  <si>
-    <t>烟包外观复检</t>
-  </si>
-  <si>
-    <t>小包拉线检测</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>散包视觉检测</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>散包光电检测</t>
-  </si>
-  <si>
-    <t>条盒拉线检测</t>
-  </si>
-  <si>
-    <t>DeviceNO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>011</t>
-  </si>
-  <si>
-    <t>001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>002</t>
-  </si>
-  <si>
-    <t>003</t>
-  </si>
-  <si>
-    <t>004</t>
-  </si>
-  <si>
-    <t>005</t>
-  </si>
-  <si>
-    <t>006</t>
-  </si>
-  <si>
-    <t>007</t>
-  </si>
-  <si>
-    <t>008</t>
-  </si>
-  <si>
-    <t>009</t>
-  </si>
-  <si>
-    <t>010</t>
-  </si>
-  <si>
-    <t>012</t>
-  </si>
-  <si>
-    <t>013</t>
-  </si>
-  <si>
-    <t>DeviceName</t>
+    <t>_烟库乱烟检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_烟支空头检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_模盒缺支检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_一号轮缺支检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_三号轮铝箔纸检测</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -456,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -470,114 +510,154 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
